--- a/data/income_statement/2digits/size/17_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/17_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>17-Manufacture of paper and paper products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>17-Manufacture of paper and paper products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,641 +841,726 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>8091768.74787</v>
+        <v>7816748.26134</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>9533309.574139999</v>
+        <v>9330798.03246</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>12292772.74834</v>
+        <v>12173501.67115</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>14038651.25513</v>
+        <v>13823701.75163</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>14869894.55064</v>
+        <v>14538721.1591</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>19178341.6755</v>
+        <v>19006306.24602</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>22639161.82589</v>
+        <v>23222115.28409</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>23117105.43252</v>
+        <v>26047524.02541</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>36161470.76283</v>
+        <v>35627855.85118</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>44459919.29763</v>
+        <v>43874212.53978</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>54498445.11065</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>53913535.00205</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>70068237.10699999</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>6570567.97406</v>
+        <v>6339550.82712</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>7852923.399030001</v>
+        <v>7679871.078310001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>9865674.606000001</v>
+        <v>9766589.417579999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>11127833.05814</v>
+        <v>10935043.70894</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>11846415.36968</v>
+        <v>11542821.93459</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>15275388.2372</v>
+        <v>15117434.99616</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>17970901.98486</v>
+        <v>18425651.60959</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>17222389.42012</v>
+        <v>19773867.82361</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>28654217.91352</v>
+        <v>28202780.58242</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>34083209.23079</v>
+        <v>33571799.3088</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>42266357.32985</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>41738607.41976</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>53908155.932</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>1466745.34018</v>
+        <v>1424220.33007</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1602791.08063</v>
+        <v>1576236.96578</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>2346934.63987</v>
+        <v>2327697.62601</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>2825357.09724</v>
+        <v>2804639.49667</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>2909592.23428</v>
+        <v>2884363.01735</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>3743292.9878</v>
+        <v>3731250.51095</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>4505732.50764</v>
+        <v>4632850.271</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>5700271.210190001</v>
+        <v>6068104.06643</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>7218291.785479999</v>
+        <v>7146246.25688</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>9933802.348860001</v>
+        <v>9866809.724440001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>11729927.45146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11690628.24435</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>15538689.141</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>54455.43363</v>
+        <v>52977.10415</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>77595.09448</v>
+        <v>74689.98837000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>80163.50246999999</v>
+        <v>79214.62756000001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>85461.09974999999</v>
+        <v>84018.54602000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>113886.94668</v>
+        <v>111536.20716</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>159660.4505</v>
+        <v>157620.73891</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>162527.33339</v>
+        <v>163613.4035</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>194444.80221</v>
+        <v>205552.13537</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>288961.06383</v>
+        <v>278829.01188</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>442907.71798</v>
+        <v>435603.50654</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>502160.32934</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>484299.3379399999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>621392.034</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>959402.59051</v>
+        <v>948759.98571</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1141772.05624</v>
+        <v>1131904.94172</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1162962.49278</v>
+        <v>1150003.90117</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1313935.15346</v>
+        <v>1295292.75468</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1491023.91833</v>
+        <v>1482842.08917</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1869451.37514</v>
+        <v>1869393.38973</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2313898.45963</v>
+        <v>2322754.23891</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1485231.91789</v>
+        <v>2455246.12936</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>2990221.85448</v>
+        <v>2984285.85726</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>4436330.73309</v>
+        <v>4423637.44818</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>6824243.975490001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>6811207.375440001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>8050100.727</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>59841.34501</v>
+        <v>57505.3255</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>73936.58410000001</v>
+        <v>72042.36984</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>81223.77644</v>
+        <v>80520.15764</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>79687.65005</v>
+        <v>78251.66448000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>87335.75288000001</v>
+        <v>85693.80520999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>134567.79161</v>
+        <v>131615.34302</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>130772.47915</v>
+        <v>131788.30662</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>195917.90952</v>
+        <v>198534.9254</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>196922.1907</v>
+        <v>192788.28873</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>259988.95982</v>
+        <v>251075.86281</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>298832.3178500001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>293656.52562</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>441055.964</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>859165.297</v>
+        <v>851295.72658</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1014109.69628</v>
+        <v>1006738.95445</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1017112.30576</v>
+        <v>1005097.7706</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1149553.61506</v>
+        <v>1132363.56869</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1318847.86251</v>
+        <v>1312328.37021</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1618148.9695</v>
+        <v>1622490.66851</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1989532.48776</v>
+        <v>1997335.32203</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1116837.57651</v>
+        <v>2084594.63044</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>2596949.36653</v>
+        <v>2595555.54161</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>3875233.43502</v>
+        <v>3872797.88676</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>5794672.985889999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5788925.66624</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>6374100.685</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>40395.9485</v>
+        <v>39958.93362999999</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>53725.77586</v>
+        <v>53123.61743</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>64626.41058</v>
+        <v>64385.97293</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>84693.88835000001</v>
+        <v>84677.52151000001</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>84840.30293999999</v>
+        <v>84819.91375000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>116734.61403</v>
+        <v>115287.3782</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>193593.49272</v>
+        <v>193630.61026</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>172476.43186</v>
+        <v>172116.57352</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>196350.29725</v>
+        <v>195942.02692</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>301108.33825</v>
+        <v>299763.69861</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>730738.67175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>728625.1835800001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1234944.078</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>7132366.157360001</v>
+        <v>6867988.27563</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>8391537.517900001</v>
+        <v>8198893.09074</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>11129810.25556</v>
+        <v>11023497.76998</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>12724716.10167</v>
+        <v>12528408.99695</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>13378870.63231</v>
+        <v>13055879.06993</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>17308890.30036</v>
+        <v>17136912.85629</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>20325263.36626</v>
+        <v>20899361.04518</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>21631873.51463</v>
+        <v>23592277.89605</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>33171248.90835</v>
+        <v>32643569.99392</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>40023588.56454</v>
+        <v>39450575.0916</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>47674201.13516001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>47102327.62661</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>62018136.38</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>5509209.92158</v>
+        <v>5285740.989010001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>6595064.1268</v>
+        <v>6424140.74483</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>8824935.521229999</v>
+        <v>8735780.783620002</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>10167893.1107</v>
+        <v>9999982.480530001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>10599337.74239</v>
+        <v>10322538.3611</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>13782244.5579</v>
+        <v>13631019.89086</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>16247680.28195</v>
+        <v>16717286.38486</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>17590399.51699</v>
+        <v>19128594.13518</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>26238330.31307</v>
+        <v>25798094.69809</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>29923533.53747</v>
+        <v>29456790.02409</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>36618575.1035</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>36122997.33291</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>45566764.855</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>4674296.74058</v>
+        <v>4474457.57265</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>5545349.163579999</v>
+        <v>5388274.192989999</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>7602955.663840001</v>
+        <v>7519923.1624</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>8736309.866540002</v>
+        <v>8587712.975749999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>8959401.47711</v>
+        <v>8728008.67708</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>11667525.07732</v>
+        <v>11566918.22498</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>13520899.30403</v>
+        <v>13987820.71828</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>15578090.66694</v>
+        <v>16114986.57204</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>22695540.13363</v>
+        <v>22305478.75328</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>25646371.22066</v>
+        <v>25232674.51927</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>32102752.88571</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>31650598.7003</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>40371639.237</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>743285.4274500001</v>
+        <v>723479.52177</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>907707.4845199999</v>
+        <v>904119.92603</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1038783.16482</v>
+        <v>1037310.1253</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1206287.7465</v>
+        <v>1202992.58715</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1394941.15712</v>
+        <v>1383796.03035</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1811054.76435</v>
+        <v>1797922.81986</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2300300.48998</v>
+        <v>2299612.54209</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1617495.98273</v>
+        <v>2626499.5941</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>3108688.1554</v>
+        <v>3061774.33548</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3639942.20122</v>
+        <v>3588773.14552</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3493211.93851</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3466091.07399</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>4581906.152</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>40752.38881999999</v>
+        <v>37721.93017</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>53428.82985</v>
+        <v>48349.17127</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>65950.3971</v>
+        <v>61677.83259</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>87789.00786999999</v>
+        <v>72281.23409</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>62669.98246</v>
+        <v>31258.39427</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>57220.42804</v>
+        <v>22988.41332</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>162091.21852</v>
+        <v>161503.7696</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>183299.75301</v>
+        <v>178394.1109</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>195381.22632</v>
+        <v>194500.57003</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>447536.31008</v>
+        <v>447525.1232800001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>806369.99841</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>805105.14161</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>402588</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>50875.36473</v>
+        <v>50081.96442</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>88578.64885</v>
+        <v>83397.45453999999</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>117246.29547</v>
+        <v>116869.66333</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>137506.48979</v>
+        <v>136995.68354</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>182325.1257</v>
+        <v>179475.2594</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>246444.28819</v>
+        <v>243190.4327</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>264389.26942</v>
+        <v>268349.35489</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>211513.11431</v>
+        <v>208713.85814</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>238720.79772</v>
+        <v>236341.0393</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>189683.80551</v>
+        <v>187817.23602</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>216240.28087</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>201202.41701</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>210631.466</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1623156.23578</v>
+        <v>1582247.28662</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1796473.3911</v>
+        <v>1774752.34591</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2304874.73433</v>
+        <v>2287716.98636</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2556822.99097</v>
+        <v>2528426.51642</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2779532.88992</v>
+        <v>2733340.70883</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>3526645.74246</v>
+        <v>3505892.96543</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>4077583.08431</v>
+        <v>4182074.66032</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>4041473.99764</v>
+        <v>4463683.76087</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>6932918.59528</v>
+        <v>6845475.29583</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>10100055.02707</v>
+        <v>9993785.067509999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>11055626.03166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>10979330.2937</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>16451371.525</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1103099.95216</v>
+        <v>1049720.47825</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1364332.67985</v>
+        <v>1325972.76959</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1456045.45718</v>
+        <v>1419110.8993</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1671397.9124</v>
+        <v>1633361.87547</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1803183.39543</v>
+        <v>1779906.96214</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2243166.64653</v>
+        <v>2240237.67171</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2502989.84771</v>
+        <v>2595413.52948</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2683777.01414</v>
+        <v>3014286.13471</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>3755886.77786</v>
+        <v>3699423.88462</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>4186536.53072</v>
+        <v>4147335.52075</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>5553102.28924</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>5509148.781939999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>7110718.573</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>1382.54637</v>
+        <v>1059.16668</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>1389.76793</v>
@@ -1583,190 +1569,215 @@
         <v>3193.73776</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>4580.0053</v>
+        <v>4554.98228</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>6546.49897</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>8628.133240000001</v>
+        <v>9848.293659999998</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>13524.4824</v>
+        <v>15217.41938</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>22145.27187</v>
+        <v>24756.69086</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>22888.16731</v>
+        <v>22864.32523</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>28261.9484</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>41506.4583</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>41503.3629</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>47351.605</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>673908.76928</v>
+        <v>645871.15036</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>938981.63924</v>
+        <v>921194.0976799999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>913704.8872100001</v>
+        <v>898669.5383</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1060955.31973</v>
+        <v>1043971.51653</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1178475.72438</v>
+        <v>1169331.61974</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1403221.3737</v>
+        <v>1403820.23248</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1560203.54982</v>
+        <v>1622957.8712</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1758193.91286</v>
+        <v>1908273.88362</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>2418630.84743</v>
+        <v>2394250.02442</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>2567264.92593</v>
+        <v>2544218.07116</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>3504103.02678</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>3488930.06485</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>4538639.486</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>427808.63651</v>
+        <v>402790.16121</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>423961.2726799999</v>
+        <v>403388.90398</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>539146.83221</v>
+        <v>517247.6232399999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>605862.58737</v>
+        <v>584835.37666</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>618161.17208</v>
+        <v>604028.8434299999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>831317.1395899999</v>
+        <v>826569.1455700001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>929261.8154900001</v>
+        <v>957238.2389000001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>903437.82941</v>
+        <v>1081255.56023</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1314367.76312</v>
+        <v>1282309.53497</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1591009.65639</v>
+        <v>1574855.50119</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2007492.80416</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1978715.35419</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2524727.482</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>520056.28362</v>
+        <v>532526.80837</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>432140.71125</v>
+        <v>448779.5763200001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>848829.2771500001</v>
+        <v>868606.0870599999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>885425.0785699999</v>
+        <v>895064.6409499999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>976349.49449</v>
+        <v>953433.7466900001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1283479.09593</v>
+        <v>1265655.29372</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1574593.2366</v>
+        <v>1586661.13084</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1357696.9835</v>
+        <v>1449397.62616</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>3177031.81742</v>
+        <v>3146051.41121</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>5913518.496350001</v>
+        <v>5846449.54676</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>5502523.74242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>5470181.51176</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>9340652.952</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>387163.3077</v>
+        <v>359808.60166</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>420911.43809</v>
+        <v>396363.2514600001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>568867.93808</v>
+        <v>535850.06374</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>641197.90318</v>
+        <v>615099.34288</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>952077.8137899999</v>
+        <v>934779.8269</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1290084.73483</v>
+        <v>1320216.5317</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1764643.33192</v>
+        <v>1841455.74116</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1853833.39359</v>
+        <v>2123325.9001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>3792602.51211</v>
+        <v>3756313.53426</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>8514328.26142</v>
+        <v>8448225.435869999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>5336033.909</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>5182463.18025</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>8548858.798</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>1391.25475</v>
@@ -1784,10 +1795,10 @@
         <v>14386.06922</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>13671.34678</v>
+        <v>13681.34678</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>8533.81559</v>
+        <v>8752.25891</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>3695.1282</v>
@@ -1801,17 +1812,22 @@
       <c r="M26" s="48" t="n">
         <v>3543.38533</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>1185.249</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>2359.94634</v>
+        <v>776.30524</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>1299.52365</v>
+        <v>657.70968</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>1411.34474</v>
@@ -1838,55 +1854,65 @@
         <v>332939.65655</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>317897.31091</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>203108.86645</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>201689.421</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>24213.64122</v>
+        <v>19098.73974</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>18353.58787</v>
+        <v>15450.96989</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>28607.79374</v>
+        <v>22761.11482</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>42003.58025</v>
+        <v>36213.09778</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>32105.30245</v>
+        <v>30724.30315</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>46873.46415</v>
+        <v>49378.93035</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>103261.81652</v>
+        <v>109903.14142</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>107456.71988</v>
+        <v>111550.29802</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>154889.10654</v>
+        <v>149957.7018</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>273166.87634</v>
+        <v>271088.83082</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>331347.45796</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>317780.0529</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>277174.748</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>577.34593</v>
+        <v>574.06786</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>215.30771</v>
@@ -1910,7 +1936,7 @@
         <v>711.1736599999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>869.14116</v>
+        <v>868.86078</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>609.52401</v>
@@ -1918,134 +1944,154 @@
       <c r="M29" s="48" t="n">
         <v>1802.16165</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>75.08499999999999</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>7603.916490000001</v>
+        <v>7501.48407</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>6566.35817</v>
+        <v>5679.30908</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>6389.570320000001</v>
+        <v>5473.19753</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>7827.412719999999</v>
+        <v>7721.912719999999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>7574.93166</v>
+        <v>7506.643230000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>9577.28939</v>
+        <v>8653.25693</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>10090.6238</v>
+        <v>10508.14394</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>15372.97807</v>
+        <v>15473.12341</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>16502.5535</v>
+        <v>16402.9575</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>15228.79394</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>19247.07831</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>18990.03851</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>24663.365</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1147.71693</v>
+        <v>411.94443</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>2630.12852</v>
+        <v>401.41382</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>26076.84222</v>
+        <v>12572.54797</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1007.18569</v>
+        <v>206.45469</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>12462.43269</v>
+        <v>10602.93838</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>848.5813200000001</v>
+        <v>3551.35746</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>10236.18288</v>
+        <v>12246.56178</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>5627.476060000001</v>
+        <v>4569.907689999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>6812.51874</v>
+        <v>6377.81202</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>9163.65749</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>19148.8338</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>19094.75142</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>34522.924</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>279944.07226</v>
+        <v>265706.48214</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>304470.40262</v>
+        <v>293462.4285</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>375706.0699</v>
+        <v>367630.87428</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>448353.82822</v>
+        <v>435893.80651</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>610500.42723</v>
+        <v>602492.2918199999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>959161.5442100001</v>
+        <v>988606.32799</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1400850.21779</v>
+        <v>1465384.67461</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1473821.48064</v>
+        <v>1723644.30437</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>2791962.8802</v>
+        <v>2769200.55602</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>7238393.423700001</v>
+        <v>7178074.189379999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>3924228.18452</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>3908946.32595</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>7409060.336</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>14079.50095</v>
+        <v>13957.57376</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>10761.04011</v>
+        <v>10709.77189</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>19128.80175</v>
@@ -2054,16 +2100,16 @@
         <v>30012.49212</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>27133.99129</v>
+        <v>27131.81764</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>34199.97489</v>
+        <v>34673.78601999999</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>36474.13608</v>
+        <v>37148.77340999999</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>59165.61714</v>
+        <v>59487.12322</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>71900.80376000001</v>
@@ -2072,13 +2118,18 @@
         <v>150533.96212</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>259052.87756</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>257758.74052</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>130806.159</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>164.90522</v>
@@ -2113,116 +2164,131 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>55681.00761</v>
+        <v>50225.84445</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>74992.11452000002</v>
+        <v>68163.36597</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>103776.85522</v>
+        <v>99101.52245999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>103730.12421</v>
+        <v>96788.29909</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>99273.49458999999</v>
+        <v>93294.59879999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>138771.89979</v>
+        <v>134690.89187</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>190889.05886</v>
+        <v>193204.70669</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>177082.01308</v>
+        <v>193294.03467</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>287064.39361</v>
+        <v>279003.72778</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>440749.48772</v>
+        <v>437043.94201</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>459766.61896</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>451438.85752</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>469681.511</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>331510.90151</v>
+        <v>318619.68077</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>329892.0428</v>
+        <v>315436.21729</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>553420.6904099999</v>
+        <v>547566.05114</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>470818.68503</v>
+        <v>408275.4817000001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>704484.6035</v>
+        <v>680468.6499300001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>885093.7126900001</v>
+        <v>920181.67666</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1403120.09216</v>
+        <v>1457283.58435</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1514858.12148</v>
+        <v>1831089.96777</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>3058461.00451</v>
+        <v>3007690.00564</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>5989101.33944</v>
+        <v>5936921.51004</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>3506175.02337</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>3477911.05407</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>6656780.252</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>759.9315899999999</v>
+        <v>759.7460500000001</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>783.23078</v>
+        <v>716.6849400000001</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>1249.41124</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>2311.85777</v>
+        <v>2305.98177</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>3776.3589</v>
+        <v>3693.59943</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>3864.79582</v>
+        <v>4081.22873</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>4404.55542</v>
+        <v>4749.66706</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>7893.220929999999</v>
+        <v>7104.74286</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>14408.52598</v>
+        <v>13519.78684</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>18964.30494</v>
@@ -2230,77 +2296,87 @@
       <c r="M37" s="48" t="n">
         <v>12684.48467</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>29718.089</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>20524.71643</v>
+        <v>19908.346</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>13435.24253</v>
+        <v>13190.11448</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>16387.4528</v>
+        <v>16146.40478</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>28954.918</v>
+        <v>27916.87682</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>26619.16335</v>
+        <v>26191.76948</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>26780.55277</v>
+        <v>46435.23138</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>30969.74375</v>
+        <v>52233.93612000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>70847.48906000001</v>
+        <v>70927.52658000001</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>82633.03797999999</v>
+        <v>82500.927</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>85567.02184</v>
+        <v>84890.23406999999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>90174.89362999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>87730.00396</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>78360.125</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>2337.8706</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>2410.26142</v>
+        <v>1186.94814</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>250.11485</v>
+        <v>2.41796</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>52467.78745</v>
+        <v>30.1695</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>859.6603200000001</v>
+        <v>237.02413</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>195.66903</v>
+        <v>284.1019</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>22847.51645</v>
+        <v>19149.41571</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>4903.20808</v>
+        <v>4488.25371</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>2663.89845</v>
+        <v>2609.7673</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>8606.089960000001</v>
@@ -2308,56 +2384,66 @@
       <c r="M39" s="48" t="n">
         <v>400.90542</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>117.099</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>234783.11206</v>
+        <v>223870.25495</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>227816.03098</v>
+        <v>222362.62357</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>435110.34178</v>
+        <v>429942.2870900001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>276620.64647</v>
+        <v>267747.12166</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>530822.96887</v>
+        <v>508192.6578</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>696594.70268</v>
+        <v>711956.67125</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1175946.85731</v>
+        <v>1210777.06345</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1341700.83667</v>
+        <v>1579754.09559</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>2620580.47755</v>
+        <v>2572711.90405</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>5392873.42305</v>
+        <v>5341370.39342</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2887603.157399999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2864720.80533</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>6079798.285</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>13313.98372</v>
+        <v>13219.17097</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>11013.45913</v>
+        <v>10953.42196</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>20436.05192</v>
@@ -2369,13 +2455,13 @@
         <v>30058.04408</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>35202.31092</v>
+        <v>35657.24885</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>39069.37065999999</v>
+        <v>39741.3775</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>55902.77032</v>
+        <v>56490.95553</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>77889.67432999999</v>
@@ -2384,13 +2470,18 @@
         <v>168788.38585</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>251813.37592</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>249558.53471</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>149533.564</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,266 +2516,301 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>59791.28711</v>
+        <v>58524.2922</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>73606.55576</v>
+        <v>66199.162</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>79987.31782</v>
+        <v>79789.47815000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>81001.71893</v>
+        <v>80813.57553999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>112348.40798</v>
+        <v>112095.55501</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>122455.68147</v>
+        <v>121767.19455</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>129882.04857</v>
+        <v>130632.12451</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>33610.59642</v>
+        <v>112324.3935</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>260285.39022</v>
+        <v>258457.94612</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>312116.74097</v>
+        <v>312116.7289700001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>263498.20633</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>262816.31998</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>319253.09</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>257282.58051</v>
+        <v>237721.03065</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>219006.30073</v>
+        <v>198957.29185</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>527148.71311</v>
+        <v>493923.99715</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>339059.74445</v>
+        <v>323780.13446</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>642406.5825799999</v>
+        <v>613974.0572899999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>686573.0020699999</v>
+        <v>659724.8441</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1104303.21831</v>
+        <v>1119053.94668</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1456219.54221</v>
+        <v>1423033.43347</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>2049591.07307</v>
+        <v>2015347.6823</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>4633382.78614</v>
+        <v>4522060.63992</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>3835755.96206</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>3657192.15566</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>4254091.039</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>209676.78528</v>
+        <v>193092.55345</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>172298.24406</v>
+        <v>156206.30237</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>346580.60415</v>
+        <v>323571.81306</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>247495.26884</v>
+        <v>233609.18369</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>297182.57763</v>
+        <v>276493.36702</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>448404.57762</v>
+        <v>423290.99158</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>681789.2317100001</v>
+        <v>687823.2711600001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>869285.58655</v>
+        <v>836506.33081</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1151964.29563</v>
+        <v>1117720.90486</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2720525.04442</v>
+        <v>2610102.8982</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2613218.66097</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2438967.79365</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1915753.593</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>47605.79523</v>
+        <v>44628.47719999999</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>46708.05667000001</v>
+        <v>42750.98948</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>180568.10896</v>
+        <v>170352.18409</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>91564.47560999999</v>
+        <v>90170.95077000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>345224.00495</v>
+        <v>337480.69027</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>238168.42445</v>
+        <v>236433.85252</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>422513.9865999999</v>
+        <v>431230.67552</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>586933.9556600001</v>
+        <v>586527.1026600001</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>897626.7774400001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>1912857.74172</v>
+        <v>1911957.74172</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1222537.30109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1218224.36201</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2338337.446</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>318426.1093</v>
+        <v>335994.69861</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>304153.80581</v>
+        <v>330749.31864</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>337127.81171</v>
+        <v>362966.10251</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>716744.55227</v>
+        <v>778108.3676699999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>581536.1222000001</v>
+        <v>593770.8663700001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1001897.116</v>
+        <v>1005965.30466</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>831813.2580499999</v>
+        <v>851779.3409699999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>240452.7134</v>
+        <v>318600.12502</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>1861582.25195</v>
+        <v>1879327.25753</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>3805362.632190001</v>
+        <v>3835692.83267</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>3496626.66599</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>3517541.48228</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>6978640.459</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>46583.95285</v>
+        <v>40862.70673000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>87051.07515</v>
+        <v>69449.43111</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>131621.55839</v>
+        <v>129235.13201</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>62529.83478</v>
+        <v>56958.06077</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>257153.66742</v>
+        <v>186338.01719</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>137777.13641</v>
+        <v>144690.14088</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>150814.87024</v>
+        <v>162360.36982</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>247933.84155</v>
+        <v>260197.51135</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>293425.3664000001</v>
+        <v>285469.33051</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>279067.85094</v>
+        <v>275188.66245</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>275725.87315</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>274076.17909</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>373660.04</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>2486.9312</v>
+        <v>1332.44954</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>1737.53288</v>
+        <v>1732.57656</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1485.98315</v>
+        <v>1481.01006</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>674.5193200000001</v>
+        <v>669.3804699999999</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>1917.5238</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>6292.42934</v>
+        <v>6298.93987</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>5921.835300000001</v>
+        <v>6277.100060000001</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>2884.09628</v>
@@ -2693,325 +2819,368 @@
         <v>3555.25365</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>6863.83038</v>
+        <v>6863.58186</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>11553.64701</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>11546.35093</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>7116.472</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>44097.02165</v>
+        <v>39530.25719</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>85313.54226999999</v>
+        <v>67716.85455</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>130135.57524</v>
+        <v>127754.12195</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>61855.31546</v>
+        <v>56288.68030000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>255236.14362</v>
+        <v>184420.49339</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>131484.70707</v>
+        <v>138391.20101</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>144893.03494</v>
+        <v>156083.26976</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>245049.74527</v>
+        <v>257313.41507</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>289870.11275</v>
+        <v>281914.07686</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>272204.02056</v>
+        <v>268325.08059</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>264172.22614</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>262529.82816</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>366543.568</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>95554.95812000001</v>
+        <v>66784.58637</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>109819.84926</v>
+        <v>89052.30151999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>182600.35336</v>
+        <v>161039.73124</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>110976.74487</v>
+        <v>96594.63530000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>146208.27924</v>
+        <v>95710.47204000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>190897.17895</v>
+        <v>190758.55552</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>363437.43004</v>
+        <v>366711.47317</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>255943.95163</v>
+        <v>260481.17563</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>218218.96737</v>
+        <v>213159.34758</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>331888.76715</v>
+        <v>328732.58918</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>327184.62978</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>324538.96158</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>625931.8909999999</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>39470.79087</v>
+        <v>21610.60367</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>38131.43126999999</v>
+        <v>20635.95061</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>42283.05605</v>
+        <v>29765.57084</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>53988.29753</v>
+        <v>41057.81848</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>45047.50937000001</v>
+        <v>34089.84292</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>91218.85215000001</v>
+        <v>90088.34110999999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>189179.65968</v>
+        <v>190252.30324</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>71343.87035</v>
+        <v>64895.01425</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>51826.90699</v>
+        <v>49819.41418</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>146131.52753</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>134428.16477</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>133875.91614</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>226069.355</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>9817.358490000001</v>
+        <v>6580.55545</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>8895.882890000001</v>
+        <v>7818.8691</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>4934.868100000001</v>
+        <v>4602.83792</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>5085.3128</v>
+        <v>5082.1326</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>4842.37507</v>
+        <v>4647.68221</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>9321.05593</v>
+        <v>9405.163410000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>5050.235570000001</v>
+        <v>6168.5043</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>8306.52925</v>
+        <v>8400.78694</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>6457.34874</v>
+        <v>6396.0749</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>6954.47733</v>
+        <v>6774.343650000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>7883.25492</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>7879.609</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>9153.66</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>46266.80876</v>
+        <v>38593.42725</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>62792.5351</v>
+        <v>60597.48181</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>135382.42921</v>
+        <v>126671.32248</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>51903.13454</v>
+        <v>50454.68422</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>96318.39479999999</v>
+        <v>56972.94691</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>90357.27087000001</v>
+        <v>91265.05100000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>169207.53479</v>
+        <v>170290.66563</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>176293.55203</v>
+        <v>187185.37444</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>159934.71164</v>
+        <v>156943.8585</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>178802.76229</v>
+        <v>175826.718</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>184873.21009</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>182783.43644</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>390708.876</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>269455.10403</v>
+        <v>310072.81897</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>281385.0317</v>
+        <v>311146.44823</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>286149.01674</v>
+        <v>331161.5032799999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>668297.6421800001</v>
+        <v>738471.79314</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>692481.51038</v>
+        <v>684398.41152</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>948777.0734599999</v>
+        <v>959896.8900199999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>619190.69825</v>
+        <v>647428.23762</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>232442.60332</v>
+        <v>318316.46074</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>1936788.65098</v>
+        <v>1951637.24046</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>3752541.715979999</v>
+        <v>3782148.90594</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>3445167.90936</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>3467078.69979</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>6726368.608</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>70389.56187999999</v>
+        <v>70010.60490000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>76083.13985000001</v>
+        <v>74719.05495999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>98258.22318</v>
+        <v>94500.47897</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>124617.94278</v>
+        <v>123702.85332</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>107483.07655</v>
+        <v>106619.272</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>154686.64967</v>
+        <v>153590.23977</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>161675.9387</v>
+        <v>161820.39526</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>127884.58775</v>
+        <v>130656.25298</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>246916.44542</v>
+        <v>241790.19694</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>597330.9115299999</v>
+        <v>596752.94279</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>490588.96575</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>498787.3203200001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>772503.349</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>199065.54215</v>
+        <v>240062.21407</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>205301.89185</v>
+        <v>236427.39327</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>187890.79356</v>
+        <v>236661.02431</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>543679.6993999999</v>
+        <v>614768.9398200001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>584998.43383</v>
+        <v>577779.13952</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>794090.4237899999</v>
+        <v>806306.6502499999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>457514.75955</v>
+        <v>485607.84236</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>104558.01557</v>
+        <v>187660.20776</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>1689872.20556</v>
+        <v>1709847.04352</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>3155210.80445</v>
+        <v>3185395.96315</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2954578.943609999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2968291.37947</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>5953865.259</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
+        <v>61</v>
+      </c>
+      <c r="D59" s="35" t="n">
+        <v>68</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>87</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>96</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>73</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>84</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>101</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>104</v>
+      </c>
+      <c r="K59" s="35" t="n">
+        <v>130</v>
+      </c>
+      <c r="L59" s="35" t="n">
+        <v>73</v>
+      </c>
+      <c r="M59" s="35" t="n">
         <v>80</v>
       </c>
-      <c r="D59" s="35" t="n">
-        <v>83</v>
-      </c>
-      <c r="E59" s="35" t="n">
-        <v>102</v>
-      </c>
-      <c r="F59" s="35" t="n">
-        <v>114</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>87</v>
-      </c>
-      <c r="H59" s="35" t="n">
+      <c r="N59" s="35" t="n">
         <v>98</v>
       </c>
-      <c r="I59" s="35" t="n">
-        <v>116</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>123</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>156</v>
-      </c>
-      <c r="L59" s="35" t="n">
-        <v>82</v>
-      </c>
-      <c r="M59" s="35" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>